--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2218.7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2399</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2102</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02581883271535238</v>
+        <v>1285</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9, 3, 1, 6, 11, 4, 13, 8, 10, 7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 8 -&gt; 13 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3 -&gt; 6 -&gt; 9 -&gt; 8 -&gt; 12 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03127765655517578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1758.4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1891</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1725</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02849495410919189</v>
+        <v>1386</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2, 1, 6, 7, 3, 5, 10, 4, 11, 13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6 -&gt; 6 -&gt; 3 -&gt; 13 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 2 -&gt; 5 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03178811073303223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2243.2</v>
-      </c>
       <c r="C4" t="n">
-        <v>2414</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2117</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02863709926605225</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1848.966666666667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2049</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02630716959635417</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2127.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2332</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2093</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02585275967915853</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2134.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2233</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.02609366575876872</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2146.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2325</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1930</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.02632012367248535</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2096.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2224</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1945</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02596910794576009</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2239.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2490</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2094</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.02612732251485189</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2185.6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2486</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1930</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.02625579039255778</v>
+        <v>1288</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8, 13, 5, 11, 4, 1, 2, 7, 12, 6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2 -&gt; 2 -&gt; 5 -&gt; 6 -&gt; 13 -&gt; 11 -&gt; 12 -&gt; 8 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2 -&gt; 5 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 12 -&gt; 8 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03187298774719238</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_10.xlsx
@@ -454,7 +454,7 @@
         <v>1285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02800536155700684</v>
+        <v>0.02808856964111328</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1283.133333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>1285</v>
+        <v>1440</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02808856964111328</v>
+        <v>1223</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02807377179463704</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1327.433333333333</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1436</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1272</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02813696066538493</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1304.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1451</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03059898217519124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1313.033333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1272</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02815361817677816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1285.366666666667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1389</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1221</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0281095822652181</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1316</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02815911769866943</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1147.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02835159301757812</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1131.466666666667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02830394903818766</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1260.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1221</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02834920088450114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1152.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02836179733276367</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_10.xlsx
@@ -462,7 +462,7 @@
         <v>1223</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02807377179463704</v>
+        <v>0.02826855977376302</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1272</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02813696066538493</v>
+        <v>0.0281636635462443</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>1224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03059898217519124</v>
+        <v>0.03076435724894206</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>1272</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02815361817677816</v>
+        <v>0.02792839209238688</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         <v>1221</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0281095822652181</v>
+        <v>0.0280669371287028</v>
       </c>
     </row>
     <row r="7">
@@ -547,7 +547,7 @@
         <v>1068</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02815911769866943</v>
+        <v>0.02815721829732259</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>1057</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02835159301757812</v>
+        <v>0.02821250756581624</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>1068</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02830394903818766</v>
+        <v>0.02816736698150635</v>
       </c>
     </row>
     <row r="10">
@@ -598,7 +598,7 @@
         <v>1221</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02834920088450114</v>
+        <v>0.02811907132466634</v>
       </c>
     </row>
     <row r="11">
@@ -615,7 +615,7 @@
         <v>1057</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02836179733276367</v>
+        <v>0.02914378643035889</v>
       </c>
     </row>
   </sheetData>
